--- a/src/P02_data/T02_af/S11_settings.xlsx
+++ b/src/P02_data/T02_af/S11_settings.xlsx
@@ -1107,7 +1107,7 @@
         <v>1600</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" t="n">
         <v>60</v>
@@ -1121,7 +1121,7 @@
         <v>1600</v>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
         <v>60</v>
@@ -1135,10 +1135,10 @@
         <v>1600</v>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51">
@@ -1149,7 +1149,7 @@
         <v>1600</v>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D51" t="n">
         <v>70</v>
@@ -1163,7 +1163,7 @@
         <v>1600</v>
       </c>
       <c r="C52" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
         <v>70</v>
